--- a/Config/Role.xlsx
+++ b/Config/Role.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\infinity_s\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lin/space/IW.AN/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014A673-229B-1844-A845-ECFD1E6179C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="4980" windowWidth="38700" windowHeight="15450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4980" windowWidth="34560" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="职业类型" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>弓箭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,38 +48,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熟练度属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练度升级消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warror</t>
-  </si>
-  <si>
-    <t>Arrow</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Swordsman</t>
-  </si>
-  <si>
-    <t>SwordHoly</t>
-  </si>
-  <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁需要主角等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置职业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,124 +385,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>4001</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>4002</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>4003</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>5</v>
-      </c>
-      <c r="E5">
-        <v>4004</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>4005</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -543,27 +450,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -571,7 +478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -579,7 +486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -587,7 +494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -595,7 +502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -603,7 +510,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -611,7 +518,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -619,7 +526,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -627,7 +534,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -635,7 +542,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
